--- a/src/test/java/ExcelFiles/LoginInfo.xlsx
+++ b/src/test/java/ExcelFiles/LoginInfo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8490" windowHeight="7485"/>
+    <workbookView windowWidth="28800" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -15,15 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
-    <t>turkeyts</t>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>invalidUser</t>
   </si>
   <si>
     <t>TechnoStudy123</t>
-  </si>
-  <si>
-    <t>invalidUser</t>
   </si>
   <si>
     <t>invalidText</t>
@@ -975,12 +978,13 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
+    <col min="1" max="1" width="14.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="17.1428571428571" customWidth="1"/>
     <col min="3" max="3" width="11.8571428571429" customWidth="1"/>
   </cols>
@@ -1004,8 +1008,8 @@
   <sheetPr/>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1021,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1035,13 +1039,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1052,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
